--- a/Datasheets/MSO54B.xlsx
+++ b/Datasheets/MSO54B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3cb3f6eeceb65200/Documents/Albstadt/5Semester/Extraktion_aus_Datenblättern_mit_KI/Projekt_Extraktion/Datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_4401D02A797E608C91DB447A7EBAB1F0681892C1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92B2ABA7-0BBF-4C76-9EA8-FC71CD0045B3}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_4401D02A797E608C91DB447A7EBAB1F0681892C1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22E0EA10-151F-4212-AA9D-63F2364ADC01}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26160" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,12 +479,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -498,12 +495,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -851,7 +850,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +908,7 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -967,7 +966,7 @@
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1008,11 +1007,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1057,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,412 +1067,412 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="8" t="str">
         <f>Target_Values!A1</f>
         <v>Versuch</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="8" t="str">
         <f>Target_Values!B1</f>
         <v>Target Value</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="8">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="8" t="str">
         <f>Target_Values!A2</f>
         <v>Modell</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="8" t="str">
         <f>Target_Values!B2</f>
         <v>MSO54B</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="8" t="str">
         <f>Target_Values!A3</f>
         <v>Bandbreite</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="8">
         <f>Target_Values!B3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="8" t="str">
         <f>Target_Values!A4</f>
         <v>Anzahl Kanäle</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="8">
         <f>Target_Values!B4</f>
         <v>4</v>
       </c>
       <c r="C4" s="2">
         <v>4</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="8" t="str">
         <f>Target_Values!A5</f>
         <v>Samplerate</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="8">
         <f>Target_Values!B5</f>
         <v>6.25</v>
       </c>
       <c r="C5" s="2">
         <v>6.25</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="8" t="str">
         <f>Target_Values!A6</f>
         <v>Speichertiefe</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="8">
         <f>Target_Values!B6</f>
         <v>62.5</v>
       </c>
       <c r="C6" s="2">
         <v>62.5</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="8" t="str">
         <f>Target_Values!A7</f>
         <v>Triggerarten</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="8" t="str">
         <f>Target_Values!B7</f>
         <v>Edge, Pulse Width, Runt, Timeout, Window, Logic, Setup &amp; Hold,
 Rise/Fall Time, Parallel Bus, Sequence, Visual Trigger
 Optional: Video, RF vs. Time</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="8" t="str">
         <f>Target_Values!A8</f>
         <v>Vertikale Auflösung</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="8">
         <f>Target_Values!B8</f>
         <v>12</v>
       </c>
       <c r="C8" s="2">
         <v>12</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="8" t="str">
         <f>Target_Values!A9</f>
         <v>Anzahl Digitalkanäle</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="8">
         <f>Target_Values!B9</f>
         <v>0</v>
       </c>
       <c r="C9" s="2">
         <v>32</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="str">
+      <c r="A10" s="8" t="str">
         <f>Target_Values!A10</f>
         <v>Bildschirmgröße</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="8">
         <f>Target_Values!B10</f>
         <v>39.6</v>
       </c>
       <c r="C10" s="2">
         <v>39.6</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="str">
+      <c r="A11" s="8" t="str">
         <f>Target_Values!A11</f>
         <v>Bildschirmtyp.pixel</v>
       </c>
-      <c r="B11" s="1" t="str">
+      <c r="B11" s="8" t="str">
         <f>Target_Values!B11</f>
         <v>1920, 1080</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="str">
+      <c r="D11" s="7"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="str">
         <f>Target_Values!A12</f>
         <v>Bildschirmtyp.screen_type</v>
       </c>
-      <c r="B12" s="1" t="str">
+      <c r="B12" s="8" t="str">
         <f>Target_Values!B12</f>
         <v>HD Touchscreen</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="str">
+      <c r="A13" s="8" t="str">
         <f>Target_Values!A13</f>
         <v>Schnittstellen.relevant_interfaces</v>
       </c>
-      <c r="B13" s="1" t="str">
+      <c r="B13" s="8" t="str">
         <f>Target_Values!B13</f>
         <v>USB, LAN</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="str">
+      <c r="A14" s="8" t="str">
         <f>Target_Values!A14</f>
         <v>Schnittstellen.optionale_interfaces</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="8">
         <f>Target_Values!B14</f>
         <v>0</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="str">
+      <c r="A15" s="8" t="str">
         <f>Target_Values!A15</f>
         <v>unterstützende serielle Busse</v>
       </c>
-      <c r="B15" s="1" t="str">
+      <c r="B15" s="8" t="str">
         <f>Target_Values!B15</f>
         <v>I²C, SPI, eSPI, I³C, RS-232/422/485/UART, SPMI, SMBus, CAN, CAN FD, LIN, FlexRay, SENT, PSI5, CXPI, Automotive Ethernet, MIPI C-PHY, MIPI D-PHY, USB 2.0, eUSB2, Ethernet, EtherCAT, Audio, MIL-STD-1553, ARINC`429, Spacewire, 8B/10B, NRZ, Manchester, SVID, SDLC, 1-Wire, MDIO</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="str">
+      <c r="A16" s="8" t="str">
         <f>Target_Values!A16</f>
         <v>Signalerfassungsrate</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="8">
         <f>Target_Values!B16</f>
         <v>500000</v>
       </c>
       <c r="C16" s="2">
         <v>500000</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="str">
+      <c r="A17" s="8" t="str">
         <f>Target_Values!A17</f>
         <v>segmentierbarer Speicher</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="8">
         <f>Target_Values!B17</f>
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="str">
+      <c r="A18" s="8" t="str">
         <f>Target_Values!A18</f>
         <v>Funktionsgenerator</v>
       </c>
-      <c r="B18" s="1" t="str">
+      <c r="B18" s="8" t="str">
         <f>Target_Values!B18</f>
         <v>Optional</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="str">
+      <c r="A19" s="8" t="str">
         <f>Target_Values!A19</f>
         <v>DVM</v>
       </c>
-      <c r="B19" s="1" t="str">
+      <c r="B19" s="8" t="str">
         <f>Target_Values!B19</f>
         <v>Yes</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="str">
+      <c r="A20" s="8" t="str">
         <f>Target_Values!A20</f>
         <v>Counter</v>
       </c>
-      <c r="B20" s="1" t="str">
+      <c r="B20" s="8" t="str">
         <f>Target_Values!B20</f>
         <v>Yes</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="str">
+      <c r="D20" s="7"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="str">
         <f>Target_Values!A21</f>
         <v>Besonderheiten</v>
       </c>
-      <c r="B21" s="1" t="str">
+      <c r="B21" s="8" t="str">
         <f>Target_Values!B21</f>
         <v>FlexChannel Technologie - bis zu 32 digitale Kanäle</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="str">
+      <c r="A22" s="8" t="str">
         <f>Target_Values!A22</f>
         <v>Abmessungen (L x B x H) (mm)</v>
       </c>
-      <c r="B22" s="1" t="str">
+      <c r="B22" s="8" t="str">
         <f>Target_Values!B22</f>
         <v>204, 454, 309</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="str">
+      <c r="A23" s="8" t="str">
         <f>Target_Values!A23</f>
         <v>Gewicht (kg)</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="8">
         <f>Target_Values!B23</f>
         <v>11.4</v>
       </c>
       <c r="C23" s="2">
         <v>11.4</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="str">
+      <c r="A24" s="8" t="str">
         <f>Target_Values!A24</f>
         <v>Garantie (Jahre)</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="8">
         <f>Target_Values!B24</f>
         <v>1</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="str">
+      <c r="A25" s="8" t="str">
         <f>Target_Values!A25</f>
         <v>Artikelnummer</v>
       </c>
-      <c r="B25" s="1" t="str">
+      <c r="B25" s="8" t="str">
         <f>Target_Values!B25</f>
         <v>MSO54B</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="30" spans="1:6" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:Z25">
